--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Сотрудники ПЭО</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>ФИО</t>
+  </si>
+  <si>
+    <t>Начальник</t>
+  </si>
+  <si>
+    <t>Зам</t>
   </si>
 </sst>
 </file>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D6"/>
+  <dimension ref="C5:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,6 +399,16 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C5:D5"/>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Сотрудники ПЭО</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Зам</t>
+  </si>
+  <si>
+    <t>Зам2</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D8"/>
+  <dimension ref="C5:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -409,6 +412,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C5:D5"/>

--- a/Лист Microsoft Excel.xlsx
+++ b/Лист Microsoft Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Сотрудники ПЭО</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Зам2</t>
+  </si>
+  <si>
+    <t>Иванов</t>
+  </si>
+  <si>
+    <t>Сидоров</t>
   </si>
 </sst>
 </file>
@@ -379,7 +385,7 @@
   <dimension ref="C5:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,10 +412,16 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
